--- a/datasets/temperature_EoR.xlsx
+++ b/datasets/temperature_EoR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas Soltinsky\Documents\astrophysics\website\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15EC44-F30C-42D2-8688-2EA002747B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE81EB4-240A-48BE-B622-4A534AF5E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="348" windowWidth="18564" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>z</t>
   </si>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>Tk</t>
+  </si>
+  <si>
+    <t>Dhandha+25</t>
+  </si>
+  <si>
+    <t>Cosmic X-ray background, UV luminosity function, 21cm power spectrum</t>
+  </si>
+  <si>
+    <t>5-7.7</t>
+  </si>
+  <si>
+    <t>3.6-16</t>
+  </si>
+  <si>
+    <t>2.5-66.2</t>
+  </si>
+  <si>
+    <t>3.7-349.5</t>
+  </si>
+  <si>
+    <t>19.8-2077.9</t>
+  </si>
+  <si>
+    <t>6.4-33.9</t>
+  </si>
+  <si>
+    <t>4.5-19</t>
+  </si>
+  <si>
+    <t>3.1-73.3</t>
+  </si>
+  <si>
+    <t>4.3-359.2</t>
+  </si>
+  <si>
+    <t>19-1258.1</t>
   </si>
 </sst>
 </file>
@@ -450,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -920,6 +956,151 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12.5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
